--- a/Anno 117 - Deity Buffs.xlsx
+++ b/Anno 117 - Deity Buffs.xlsx
@@ -63,7 +63,18 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Mars Charcoal buff can benefit production buildings lacking a direct deity boost // Better: use specialists &amp; centralise charcoal production.</t>
+      <t xml:space="preserve">Mars Charcoal buff can benefit production buildings lacking a direct deity boost // Better: use specialists &amp; centralise charcoal production.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>V1.0 - by Rahbek</t>
     </r>
   </si>
   <si>
@@ -522,7 +533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -535,6 +546,13 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -937,13 +955,13 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -970,19 +988,19 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1000,16 +1018,16 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1024,19 +1042,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1054,13 +1072,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1069,37 +1087,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
